--- a/design/subpage-layout.xlsx
+++ b/design/subpage-layout.xlsx
@@ -51,7 +51,7 @@
     <t>main</t>
   </si>
   <si>
-    <t>footer</t>
+    <t>footer#main-footer</t>
   </si>
 </sst>
 </file>
